--- a/StructureDefinition-profile-EvidenceVariable.xlsx
+++ b/StructureDefinition-profile-EvidenceVariable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6917774-06:00</t>
+    <t>2026-02-09T22:05:43.1171504-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,38 +422,259 @@
     <t>EvidenceVariable.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.versionAlgorithm[x]` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.experimental|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this resource is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.experimental` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this EvidenceVariable is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.purpose` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the resource and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the resource.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.copyright` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.copyrightLabel` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.approvalDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.
+See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.approvalDate` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.lastReviewDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.lastReviewDate` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.effectivePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.effectivePeriod` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:actual</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.actual|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.actual from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>True if the actual variable measured, false if a conceptual representation of the intended variable.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.actual` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:handling</t>
+  </si>
+  <si>
+    <t>handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.handling|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.handling from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The method of handling in statistical analysis.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.handling` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A grouping for ordinal or polychotomous variables.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.category` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -806,9 +1027,6 @@
     <t>When the evidence variable was last reviewed</t>
   </si>
   <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
     <t>If specified, this date follows the original approval date.</t>
   </si>
   <si>
@@ -971,10 +1189,229 @@
     <t>EvidenceVariable.characteristic.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Label used for when a characteristic refers to another characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.linkId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A human-readable string to clarify or explain concepts about the characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.note` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionCodeableConcept</t>
+  </si>
+  <si>
+    <t>definitionCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionCodeableConcept|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionCodeableConcept from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using CodeableConcept.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.definitionCodeableConcept` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionExpression</t>
+  </si>
+  <si>
+    <t>definitionExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionExpression|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionExpression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using Expression.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.definitionExpression` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionId</t>
+  </si>
+  <si>
+    <t>definitionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using id.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.definitionId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionByTypeAndValue</t>
+  </si>
+  <si>
+    <t>definitionByTypeAndValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByTypeAndValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using both a type and value[x] elements.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionByCombination</t>
+  </si>
+  <si>
+    <t>definitionByCombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByCombination from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic as a combination of two or more characteristics.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.definitionByCombination` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:instances</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.instances|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.instances[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Number of occurrences meeting the characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.instances[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:duration</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.duration|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.duration[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Length of time in which the characteristic is met.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.duration[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionCanonical</t>
+  </si>
+  <si>
+    <t>definitionCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionCanonical from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Evidence,http://hl7.org/fhir/StructureDefinition/EvidenceVariable in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `EvidenceVariable.characteristic.definitionCanonical` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionReference</t>
+  </si>
+  <si>
+    <t>definitionReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionReference from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Evidence,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionReference` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.modifierExtension</t>
@@ -1082,20 +1519,13 @@
     <t>EvidenceVariable.characteristic.timeFromStart.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>EvidenceVariable.characteristic.timeFromStart.extension:timeFromEvent</t>
+  </si>
+  <si>
+    <t>timeFromEvent</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent|0.0.1-snapshot-3}
@@ -1106,6 +1536,10 @@
   </si>
   <si>
     <t>Timing in which the characteristic is determined.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+Element `EvidenceVariable.characteristic.timeFromEvent` is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart`.</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.timeFromStart.value</t>
@@ -1540,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1549,9 +1983,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.20703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1559,7 +1993,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2517,7 +2951,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2536,17 +2970,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2583,16 +3015,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2619,7 +3049,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2627,43 +3057,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2711,7 +3141,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2720,7 +3150,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2735,17 +3165,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2763,23 +3195,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2827,25 +3257,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2856,12 +3286,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2870,7 +3302,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2879,23 +3311,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2943,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2952,19 +3382,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2972,12 +3402,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2995,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>160</v>
@@ -3057,25 +3489,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3086,12 +3518,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3109,10 +3543,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3123,9 +3557,7 @@
       <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3173,19 +3605,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3202,12 +3634,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3225,10 +3659,10 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>173</v>
@@ -3287,22 +3721,22 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3316,12 +3750,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3339,21 +3775,21 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
         <v>180</v>
       </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3401,19 +3837,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3430,12 +3866,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3456,15 +3894,17 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3513,19 +3953,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3542,18 +3982,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3562,22 +4004,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3603,13 +4045,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3627,25 +4069,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3656,14 +4098,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3679,19 +4123,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3741,25 +4185,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3770,12 +4214,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3784,7 +4230,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3793,23 +4239,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>205</v>
       </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3857,25 +4301,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3886,14 +4330,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3906,24 +4350,26 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3971,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3983,10 +4429,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3995,15 +4441,15 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4026,18 +4472,20 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4085,7 +4533,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4100,10 +4548,10 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4137,7 +4585,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>221</v>
@@ -4148,8 +4596,12 @@
       <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4212,13 +4664,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4226,10 +4678,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4240,7 +4692,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4252,20 +4704,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4313,13 +4763,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4328,10 +4778,10 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4342,10 +4792,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4356,7 +4806,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4368,18 +4818,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4403,13 +4855,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4427,22 +4879,22 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4456,14 +4908,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4479,10 +4931,10 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>242</v>
@@ -4490,10 +4942,10 @@
       <c r="M26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>244</v>
       </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4541,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4562,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4593,21 +5045,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4670,13 +5122,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4684,10 +5136,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4710,20 +5162,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4771,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4786,13 +5234,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4800,10 +5248,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4811,7 +5259,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -4820,26 +5268,24 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4863,13 +5309,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4887,10 +5333,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -4902,13 +5348,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4916,21 +5362,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4939,21 +5385,21 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4977,13 +5423,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5001,13 +5447,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5016,10 +5462,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5030,10 +5476,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5044,7 +5490,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5053,19 +5499,23 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5113,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5128,24 +5578,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5165,18 +5615,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5225,7 +5677,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5240,7 +5692,7 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5254,10 +5706,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5268,7 +5720,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5277,18 +5729,20 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5337,13 +5791,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5352,7 +5806,7 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5361,15 +5815,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5392,13 +5846,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5449,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5473,15 +5927,15 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5501,22 +5955,22 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5565,7 +6019,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5580,7 +6034,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5594,10 +6048,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5608,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5620,15 +6074,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5653,13 +6109,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5677,13 +6133,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5692,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5706,22 +6162,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5729,21 +6185,21 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5791,13 +6247,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5806,13 +6262,13 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5820,10 +6276,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5846,15 +6302,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5903,7 +6361,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5915,38 +6373,38 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5958,18 +6416,20 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6017,74 +6477,74 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6133,39 +6593,39 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6176,7 +6636,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6188,17 +6648,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6223,13 +6683,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6247,13 +6707,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6276,10 +6736,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6287,10 +6747,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6299,21 +6759,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6361,13 +6819,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6385,15 +6843,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6416,18 +6874,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6475,7 +6931,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6504,10 +6960,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6518,7 +6974,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6530,22 +6986,20 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6589,13 +7043,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6613,15 +7067,15 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6632,7 +7086,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6644,13 +7098,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6701,13 +7155,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6725,15 +7179,15 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6744,7 +7198,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6756,16 +7210,20 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6813,13 +7271,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6842,10 +7300,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6865,16 +7323,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6901,13 +7359,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6925,7 +7383,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6937,7 +7395,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -6949,15 +7407,15 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6977,18 +7435,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7025,22 +7485,22 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7049,7 +7509,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7066,10 +7526,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7080,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7092,13 +7552,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7149,19 +7609,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7173,15 +7633,15 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7192,7 +7652,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7201,23 +7661,19 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7253,31 +7709,29 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7289,17 +7743,19 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7314,30 +7770,28 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7357,13 +7811,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7381,19 +7835,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7405,17 +7859,19 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7424,7 +7880,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7433,21 +7889,21 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7495,19 +7951,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7519,17 +7975,19 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7547,21 +8005,21 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7609,19 +8067,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7633,17 +8091,19 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7661,23 +8121,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7725,19 +8183,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7749,17 +8207,19 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7780,15 +8240,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7813,13 +8275,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7837,30 +8299,2550 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EvidenceVariable.xlsx
+++ b/StructureDefinition-profile-EvidenceVariable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1171504-06:00</t>
+    <t>2026-02-17T14:42:26.8066508-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.versionAlgorithm[x]` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.versionAlgorithm[x]` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -485,7 +485,7 @@
     <t>A Boolean value to indicate that this resource is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.experimental` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.experimental` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:purpose</t>
@@ -504,7 +504,7 @@
     <t>Explanation of why this EvidenceVariable is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.purpose` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.purpose` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:copyright</t>
@@ -523,7 +523,7 @@
     <t>A copyright statement relating to the resource and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the resource.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.copyright` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.copyright` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:copyrightLabel</t>
@@ -542,7 +542,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.copyrightLabel` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.copyrightLabel` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:approvalDate</t>
@@ -562,7 +562,7 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.approvalDate` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.approvalDate` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:lastReviewDate</t>
@@ -581,7 +581,7 @@
     <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.lastReviewDate` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.lastReviewDate` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:effectivePeriod</t>
@@ -600,7 +600,7 @@
     <t>The period during which the resource content was or is planned to be in active use.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.effectivePeriod` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.effectivePeriod` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:actual</t>
@@ -619,7 +619,7 @@
     <t>True if the actual variable measured, false if a conceptual representation of the intended variable.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.actual` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.actual` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:handling</t>
@@ -638,7 +638,7 @@
     <t>The method of handling in statistical analysis.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.handling` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.handling` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.extension:category</t>
@@ -657,7 +657,7 @@
     <t>A grouping for ordinal or polychotomous variables.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.category` is will have a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.category` has a context of EvidenceVariable based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>EvidenceVariable.modifierExtension</t>
@@ -1192,226 +1192,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>EvidenceVariable.characteristic.extension:linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.linkId|0.0.1-snapshot-3}
+    <t>EvidenceVariable.characteristic.extension:characteristic</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Label used for when a characteristic refers to another characteristic.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.linkId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.note|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.note from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A human-readable string to clarify or explain concepts about the characteristic.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.note` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionCodeableConcept</t>
-  </si>
-  <si>
-    <t>definitionCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionCodeableConcept|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionCodeableConcept from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the characteristic using CodeableConcept.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionCodeableConcept` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionExpression</t>
-  </si>
-  <si>
-    <t>definitionExpression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionExpression|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionExpression from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the characteristic using Expression.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionExpression` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionId</t>
-  </si>
-  <si>
-    <t>definitionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the characteristic using id.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionByTypeAndValue</t>
-  </si>
-  <si>
-    <t>definitionByTypeAndValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByTypeAndValue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the characteristic using both a type and value[x] elements.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionByCombination</t>
-  </si>
-  <si>
-    <t>definitionByCombination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByCombination from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the characteristic as a combination of two or more characteristics.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByCombination` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:instances</t>
-  </si>
-  <si>
-    <t>instances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.instances|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.instances[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Number of occurrences meeting the characteristic.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.instances[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:duration</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.duration|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.duration[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Length of time in which the characteristic is met.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.duration[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionCanonical</t>
-  </si>
-  <si>
-    <t>definitionCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionCanonical from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Evidence,http://hl7.org/fhir/StructureDefinition/EvidenceVariable in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `EvidenceVariable.characteristic.definitionCanonical` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.extension:definitionReference</t>
-  </si>
-  <si>
-    <t>definitionReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.definitionReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Evidence,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EvidenceVariable.characteristic.definitionReference` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Cross-version extension for EvidenceVariable.characteristic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A defining factor of the EvidenceVariable. Multiple characteristics are applied with "and" semantics.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic` has is mapped to FHIR R4 element `EvidenceVariable.characteristic`, but has no comparisons.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined as a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.modifierExtension</t>
@@ -1511,148 +1309,6 @@
   </si>
   <si>
     <t>Indicates duration from the participant's study entry.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.id</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.extension:timeFromEvent</t>
-  </si>
-  <si>
-    <t>timeFromEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic.timeFromEvent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Timing in which the characteristic is determined.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.timeFromEvent` is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart`.</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>EvidenceVariable.characteristic.timeFromStart.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.groupMeasure</t>
@@ -1974,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1983,9 +1639,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="45.64453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1993,7 +1649,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2008,10 +1664,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.5234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -7764,7 +7420,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7867,13 +7523,11 @@
         <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7886,24 +7540,26 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7951,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7960,7 +7616,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>138</v>
@@ -7975,19 +7631,17 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8008,18 +7662,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8067,19 +7721,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -8096,20 +7750,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -8121,21 +7773,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8183,19 +7835,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8212,14 +7864,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8228,7 +7878,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8240,18 +7890,18 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8299,7 +7949,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8308,10 +7958,10 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8328,14 +7978,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8356,22 +8004,22 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8415,19 +8063,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8444,14 +8092,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8472,17 +8118,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8531,19 +8175,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8560,14 +8204,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8588,17 +8230,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8647,19 +8287,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8676,14 +8316,12 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8704,17 +8342,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8739,13 +8375,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8763,19 +8399,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8787,2062 +8423,6 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EvidenceVariable.xlsx
+++ b/StructureDefinition-profile-EvidenceVariable.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8066508-06:00</t>
+    <t>2026-02-20T11:59:20.8072089-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EvidenceVariable|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EvidenceVariable</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.versionAlgorithm}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.experimental|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.experimental}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.purpose|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.purpose}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyright|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyright}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyrightLabel}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>approvalDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.approvalDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.approvalDate}
 </t>
   </si>
   <si>
@@ -571,7 +571,7 @@
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.lastReviewDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.lastReviewDate}
 </t>
   </si>
   <si>
@@ -590,7 +590,7 @@
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.effectivePeriod|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.effectivePeriod}
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.actual|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.actual}
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>handling</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.handling|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.handling}
 </t>
   </si>
   <si>
@@ -647,7 +647,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.category}
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic}
 </t>
   </si>
   <si>
@@ -1649,7 +1649,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-EvidenceVariable.xlsx
+++ b/StructureDefinition-profile-EvidenceVariable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8072089-06:00</t>
+    <t>2026-02-21T13:36:54.2230497-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EvidenceVariable</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EvidenceVariable|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.versionAlgorithm}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.versionAlgorithm|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.experimental}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.experimental|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.purpose}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.purpose|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyright}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyright|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyrightLabel}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.copyrightLabel|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>approvalDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.approvalDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.approvalDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -571,7 +571,7 @@
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.lastReviewDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.lastReviewDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -590,7 +590,7 @@
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.effectivePeriod}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.effectivePeriod|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.actual}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.actual|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>handling</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.handling}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.handling|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -647,7 +647,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1192,24 +1192,184 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>EvidenceVariable.characteristic.extension:characteristic</t>
-  </si>
-  <si>
-    <t>characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic}
+    <t>EvidenceVariable.characteristic.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for EvidenceVariable.characteristic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A defining factor of the EvidenceVariable. Multiple characteristics are applied with "and" semantics.</t>
-  </si>
-  <si>
-    <t>Element `EvidenceVariable.characteristic` has is mapped to FHIR R4 element `EvidenceVariable.characteristic`, but has no comparisons.
-Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined as a content reference to `EvidenceVariable.characteristic`.</t>
+    <t>Cross-version extension for EvidenceVariable.characteristic.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Label used for when a characteristic refers to another characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.linkId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A human-readable string to clarify or explain concepts about the characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.note` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionCodeableConcept</t>
+  </si>
+  <si>
+    <t>definitionCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionCodeableConcept|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionCodeableConcept from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using CodeableConcept.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionExpression</t>
+  </si>
+  <si>
+    <t>definitionExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionExpression|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionExpression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using Expression.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionExpression` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionId</t>
+  </si>
+  <si>
+    <t>definitionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using id.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionByTypeAndValue</t>
+  </si>
+  <si>
+    <t>definitionByTypeAndValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByTypeAndValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic using both a type and value[x] elements.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:definitionByCombination</t>
+  </si>
+  <si>
+    <t>definitionByCombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.definitionByCombination from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the characteristic as a combination of two or more characteristics.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:instances</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.instances|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.instances[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Number of occurrences meeting the characteristic.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.instances[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.extension:duration</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.duration|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.duration[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Length of time in which the characteristic is met.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.duration[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.modifierExtension</t>
@@ -1309,6 +1469,148 @@
   </si>
   <si>
     <t>Indicates duration from the participant's study entry.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.id</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.extension:timeFromEvent</t>
+  </si>
+  <si>
+    <t>timeFromEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EvidenceVariable.characteristic.timeFromEvent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Timing in which the characteristic is determined.</t>
+  </si>
+  <si>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.timeFromStart.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.groupMeasure</t>
@@ -1630,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1639,9 +1941,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.64453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="59.515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.20703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1649,7 +1951,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1664,10 +1966,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.5234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -7420,7 +7722,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7523,11 +7825,13 @@
         <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7540,26 +7844,24 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7607,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7616,7 +7918,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>138</v>
@@ -7631,17 +7933,19 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7662,18 +7966,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7721,19 +8025,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7750,18 +8054,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7773,21 +8079,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7835,19 +8141,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7864,12 +8170,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7878,7 +8186,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7890,18 +8198,18 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7949,7 +8257,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7958,10 +8266,10 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -7978,12 +8286,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8004,22 +8314,22 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8063,19 +8373,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8092,12 +8402,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8118,15 +8430,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8175,19 +8489,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8204,12 +8518,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8230,15 +8546,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8287,19 +8605,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8316,12 +8634,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8342,15 +8662,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8375,54 +8697,1878 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
+      <c r="Y71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>77</v>
       </c>
     </row>
